--- a/TemperatureData/GilbrookRes03/0903_2024.xlsx
+++ b/TemperatureData/GilbrookRes03/0903_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice.sharepoint.com/sites/TeamMosher/Shared Documents/General/People/Scott, Reed/VTADS/HoboLoggerData/GilbrookRes3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\VTADS\TemperatureData\GilbrookRes03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DDCF861-E681-44E0-A4C8-3FC763D10285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87527D3-8E3D-4E2C-85AB-04E686F80003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{73028E43-51E1-43A7-A5AC-FCC686D361D3}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{73028E43-51E1-43A7-A5AC-FCC686D361D3}"/>
   </bookViews>
   <sheets>
     <sheet name="0903_2024" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>#</t>
   </si>
@@ -47,9 +47,6 @@
     <t>End Of File (LGR S/N: 21422123)</t>
   </si>
   <si>
-    <t>Logged</t>
-  </si>
-  <si>
     <t>#Pond ID: 03</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>#Logger was collected on 07/31/2024 at 11:05</t>
+  </si>
+  <si>
+    <t>#All data after this date/time was deleted</t>
   </si>
 </sst>
 </file>
@@ -921,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C507D14D-3FE7-4BBA-8510-113438DF5A18}">
-  <dimension ref="A1:H5964"/>
+  <dimension ref="A1:H5950"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A5923" workbookViewId="0">
+      <selection activeCell="A5964" sqref="A5951:XFD5964"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -84244,196 +84244,6 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5951" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5951">
-        <v>5950</v>
-      </c>
-      <c r="B5951" s="1">
-        <v>45504.46875</v>
-      </c>
-      <c r="C5951">
-        <v>78.097999999999999</v>
-      </c>
-      <c r="D5951">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5952" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5952">
-        <v>5951</v>
-      </c>
-      <c r="B5952" s="1">
-        <v>45504.479166666664</v>
-      </c>
-      <c r="C5952">
-        <v>75.311999999999998</v>
-      </c>
-      <c r="D5952">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5953" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5953">
-        <v>5952</v>
-      </c>
-      <c r="B5953" s="1">
-        <v>45504.489583333336</v>
-      </c>
-      <c r="C5953">
-        <v>73.233999999999995</v>
-      </c>
-      <c r="D5953">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5954" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5954">
-        <v>5953</v>
-      </c>
-      <c r="B5954" s="1">
-        <v>45504.5</v>
-      </c>
-      <c r="C5954">
-        <v>73.406999999999996</v>
-      </c>
-      <c r="D5954">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5955" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5955">
-        <v>5954</v>
-      </c>
-      <c r="B5955" s="1">
-        <v>45504.510416666664</v>
-      </c>
-      <c r="C5955">
-        <v>77.748999999999995</v>
-      </c>
-      <c r="D5955">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5956" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5956">
-        <v>5955</v>
-      </c>
-      <c r="B5956" s="1">
-        <v>45504.520833333336</v>
-      </c>
-      <c r="C5956">
-        <v>80.734999999999999</v>
-      </c>
-      <c r="D5956">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5957" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5957">
-        <v>5956</v>
-      </c>
-      <c r="B5957" s="1">
-        <v>45504.53125</v>
-      </c>
-      <c r="C5957">
-        <v>82.152000000000001</v>
-      </c>
-      <c r="D5957">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5958" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5958">
-        <v>5957</v>
-      </c>
-      <c r="B5958" s="1">
-        <v>45504.541666666664</v>
-      </c>
-      <c r="C5958">
-        <v>83.935000000000002</v>
-      </c>
-      <c r="D5958">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5959" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5959">
-        <v>5958</v>
-      </c>
-      <c r="B5959" s="1">
-        <v>45504.552083333336</v>
-      </c>
-      <c r="C5959">
-        <v>82.507999999999996</v>
-      </c>
-      <c r="D5959">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5960" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5960">
-        <v>5959</v>
-      </c>
-      <c r="B5960" s="1">
-        <v>45504.5625</v>
-      </c>
-      <c r="C5960">
-        <v>81.266000000000005</v>
-      </c>
-      <c r="D5960">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5961" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5961">
-        <v>5960</v>
-      </c>
-      <c r="B5961" s="1">
-        <v>45504.572916666664</v>
-      </c>
-      <c r="C5961">
-        <v>76.703000000000003</v>
-      </c>
-      <c r="D5961">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5962" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5962">
-        <v>5961</v>
-      </c>
-      <c r="B5962" s="1">
-        <v>45504.582175925927</v>
-      </c>
-      <c r="E5962" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5963" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5963">
-        <v>5962</v>
-      </c>
-      <c r="B5963" s="1">
-        <v>45504.58222222222</v>
-      </c>
-      <c r="F5963" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5964" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5964">
-        <v>5963</v>
-      </c>
-      <c r="B5964" s="1">
-        <v>45504.582349537035</v>
-      </c>
-      <c r="G5964" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5964" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -84441,31 +84251,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30893234-39A5-4D75-96D5-2DC0E616930C}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -84702,15 +84517,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="94106a43-364c-4431-a764-9e3dd608a139" xsi:nil="true"/>
@@ -84721,14 +84527,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A9CA00A-275F-45EE-AAC8-5256D4BFA979}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A9CA00A-275F-45EE-AAC8-5256D4BFA979}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEB7267-8DE0-46D7-A81E-ECACC8D8A50B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB365AF3-1453-439E-AE8A-D50397D23FB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB365AF3-1453-439E-AE8A-D50397D23FB9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEB7267-8DE0-46D7-A81E-ECACC8D8A50B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>